--- a/natmiOut/YoungD2/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/C1qb-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -85,19 +91,13 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>C1qb</t>
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>270.035938452587</v>
+        <v>0.229693</v>
       </c>
       <c r="H2">
-        <v>270.035938452587</v>
+        <v>0.689079</v>
       </c>
       <c r="I2">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="J2">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>433.4544923424838</v>
+        <v>0.4017447713430001</v>
       </c>
       <c r="R2">
-        <v>433.4544923424838</v>
+        <v>3.615702942087001</v>
       </c>
       <c r="S2">
-        <v>0.001189349239237949</v>
+        <v>9.092061964091814E-07</v>
       </c>
       <c r="T2">
-        <v>0.001189349239237949</v>
+        <v>9.092061964091815E-07</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>270.035938452587</v>
+        <v>0.229693</v>
       </c>
       <c r="H3">
-        <v>270.035938452587</v>
+        <v>0.689079</v>
       </c>
       <c r="I3">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="J3">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>38462.70326092177</v>
+        <v>32.85426535179334</v>
       </c>
       <c r="R3">
-        <v>38462.70326092177</v>
+        <v>295.68838816614</v>
       </c>
       <c r="S3">
-        <v>0.1055372309448058</v>
+        <v>7.43539275855779E-05</v>
       </c>
       <c r="T3">
-        <v>0.1055372309448058</v>
+        <v>7.43539275855779E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>270.035938452587</v>
+        <v>0.229693</v>
       </c>
       <c r="H4">
-        <v>270.035938452587</v>
+        <v>0.689079</v>
       </c>
       <c r="I4">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="J4">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>32840.30570777372</v>
+        <v>30.504335682716</v>
       </c>
       <c r="R4">
-        <v>32840.30570777372</v>
+        <v>274.539021144444</v>
       </c>
       <c r="S4">
-        <v>0.09011001915979942</v>
+        <v>6.903569877799812E-05</v>
       </c>
       <c r="T4">
-        <v>0.09011001915979942</v>
+        <v>6.903569877799813E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>270.035938452587</v>
+        <v>0.229693</v>
       </c>
       <c r="H5">
-        <v>270.035938452587</v>
+        <v>0.689079</v>
       </c>
       <c r="I5">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="J5">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>33731.29292978637</v>
+        <v>28.874060214512</v>
       </c>
       <c r="R5">
-        <v>33731.29292978637</v>
+        <v>259.866541930608</v>
       </c>
       <c r="S5">
-        <v>0.09255478555025633</v>
+        <v>6.534615092753105E-05</v>
       </c>
       <c r="T5">
-        <v>0.09255478555025633</v>
+        <v>6.534615092753105E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>270.035938452587</v>
+        <v>0.229693</v>
       </c>
       <c r="H6">
-        <v>270.035938452587</v>
+        <v>0.689079</v>
       </c>
       <c r="I6">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="J6">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>14222.00750603316</v>
+        <v>12.30843973346167</v>
       </c>
       <c r="R6">
-        <v>14222.00750603316</v>
+        <v>110.775957601155</v>
       </c>
       <c r="S6">
-        <v>0.03902355173740363</v>
+        <v>2.785576931438839E-05</v>
       </c>
       <c r="T6">
-        <v>0.03902355173740363</v>
+        <v>2.785576931438839E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>270.035938452587</v>
+        <v>0.229693</v>
       </c>
       <c r="H7">
-        <v>270.035938452587</v>
+        <v>0.689079</v>
       </c>
       <c r="I7">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="J7">
-        <v>0.3444821313299452</v>
+        <v>0.0002494582147107716</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>5855.637260795917</v>
+        <v>5.283562539930666</v>
       </c>
       <c r="R7">
-        <v>5855.637260795917</v>
+        <v>47.552062859376</v>
       </c>
       <c r="S7">
-        <v>0.01606719469844197</v>
+        <v>1.195746190886697E-05</v>
       </c>
       <c r="T7">
-        <v>0.01606719469844197</v>
+        <v>1.195746190886698E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>463.003938658479</v>
+        <v>0.057773</v>
       </c>
       <c r="H8">
-        <v>463.003938658479</v>
+        <v>0.173319</v>
       </c>
       <c r="I8">
-        <v>0.5906494687974152</v>
+        <v>6.27443998662798E-05</v>
       </c>
       <c r="J8">
-        <v>0.5906494687974152</v>
+        <v>6.274439986627981E-05</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>743.201583958866</v>
+        <v>0.101047923423</v>
       </c>
       <c r="R8">
-        <v>743.201583958866</v>
+        <v>0.9094313108070001</v>
       </c>
       <c r="S8">
-        <v>0.002039259608788418</v>
+        <v>2.286859834002239E-07</v>
       </c>
       <c r="T8">
-        <v>0.002039259608788418</v>
+        <v>2.28685983400224E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>463.003938658479</v>
+        <v>0.057773</v>
       </c>
       <c r="H9">
-        <v>463.003938658479</v>
+        <v>0.173319</v>
       </c>
       <c r="I9">
-        <v>0.5906494687974152</v>
+        <v>6.27443998662798E-05</v>
       </c>
       <c r="J9">
-        <v>0.5906494687974152</v>
+        <v>6.274439986627981E-05</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>65948.19638937023</v>
+        <v>8.263593022726667</v>
       </c>
       <c r="R9">
-        <v>65948.19638937023</v>
+        <v>74.37233720454</v>
       </c>
       <c r="S9">
-        <v>0.180954260690505</v>
+        <v>1.870169947887655E-05</v>
       </c>
       <c r="T9">
-        <v>0.180954260690505</v>
+        <v>1.870169947887655E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>463.003938658479</v>
+        <v>0.057773</v>
       </c>
       <c r="H10">
-        <v>463.003938658479</v>
+        <v>0.173319</v>
       </c>
       <c r="I10">
-        <v>0.5906494687974152</v>
+        <v>6.27443998662798E-05</v>
       </c>
       <c r="J10">
-        <v>0.5906494687974152</v>
+        <v>6.274439986627981E-05</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>56308.0269114531</v>
+        <v>7.672532403676</v>
       </c>
       <c r="R10">
-        <v>56308.0269114531</v>
+        <v>69.052791633084</v>
       </c>
       <c r="S10">
-        <v>0.1545027451629501</v>
+        <v>1.736404429173412E-05</v>
       </c>
       <c r="T10">
-        <v>0.1545027451629501</v>
+        <v>1.736404429173412E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>463.003938658479</v>
+        <v>0.057773</v>
       </c>
       <c r="H11">
-        <v>463.003938658479</v>
+        <v>0.173319</v>
       </c>
       <c r="I11">
-        <v>0.5906494687974152</v>
+        <v>6.27443998662798E-05</v>
       </c>
       <c r="J11">
-        <v>0.5906494687974152</v>
+        <v>6.274439986627981E-05</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>57835.7146535003</v>
+        <v>7.262481141232</v>
       </c>
       <c r="R11">
-        <v>57835.7146535003</v>
+        <v>65.362330271088</v>
       </c>
       <c r="S11">
-        <v>0.1586945445003564</v>
+        <v>1.643603931132534E-05</v>
       </c>
       <c r="T11">
-        <v>0.1586945445003564</v>
+        <v>1.643603931132534E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>463.003938658479</v>
+        <v>0.057773</v>
       </c>
       <c r="H12">
-        <v>463.003938658479</v>
+        <v>0.173319</v>
       </c>
       <c r="I12">
-        <v>0.5906494687974152</v>
+        <v>6.27443998662798E-05</v>
       </c>
       <c r="J12">
-        <v>0.5906494687974152</v>
+        <v>6.274439986627981E-05</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>24385.07084893064</v>
+        <v>3.095851805328333</v>
       </c>
       <c r="R12">
-        <v>24385.07084893064</v>
+        <v>27.862666247955</v>
       </c>
       <c r="S12">
-        <v>0.06690982784883356</v>
+        <v>7.006357880301795E-06</v>
       </c>
       <c r="T12">
-        <v>0.06690982784883356</v>
+        <v>7.006357880301797E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>463.003938658479</v>
+        <v>0.057773</v>
       </c>
       <c r="H13">
-        <v>463.003938658479</v>
+        <v>0.173319</v>
       </c>
       <c r="I13">
-        <v>0.5906494687974152</v>
+        <v>6.27443998662798E-05</v>
       </c>
       <c r="J13">
-        <v>0.5906494687974152</v>
+        <v>6.274439986627981E-05</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>10040.08255582576</v>
+        <v>1.328935834437333</v>
       </c>
       <c r="R13">
-        <v>10040.08255582576</v>
+        <v>11.960422509936</v>
       </c>
       <c r="S13">
-        <v>0.02754883098598166</v>
+        <v>3.007572920641776E-06</v>
       </c>
       <c r="T13">
-        <v>0.02754883098598166</v>
+        <v>3.007572920641778E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>50.8496599457819</v>
+        <v>393.0249046666666</v>
       </c>
       <c r="H14">
-        <v>50.8496599457819</v>
+        <v>1179.074714</v>
       </c>
       <c r="I14">
-        <v>0.06486839987263954</v>
+        <v>0.4268449236808168</v>
       </c>
       <c r="J14">
-        <v>0.06486839987263954</v>
+        <v>0.4268449236808168</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>81.62251907612954</v>
+        <v>687.420602532138</v>
       </c>
       <c r="R14">
-        <v>81.62251907612954</v>
+        <v>6186.785422789242</v>
       </c>
       <c r="S14">
-        <v>0.000223962798131934</v>
+        <v>0.001555731688236303</v>
       </c>
       <c r="T14">
-        <v>0.000223962798131934</v>
+        <v>0.001555731688236303</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>50.8496599457819</v>
+        <v>393.0249046666666</v>
       </c>
       <c r="H15">
-        <v>50.8496599457819</v>
+        <v>1179.074714</v>
       </c>
       <c r="I15">
-        <v>0.06486839987263954</v>
+        <v>0.4268449236808168</v>
       </c>
       <c r="J15">
-        <v>0.06486839987263954</v>
+        <v>0.4268449236808168</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>7242.796616705858</v>
+        <v>56216.53471277725</v>
       </c>
       <c r="R15">
-        <v>7242.796616705858</v>
+        <v>505948.8124149952</v>
       </c>
       <c r="S15">
-        <v>0.01987340031817685</v>
+        <v>0.1272261031068164</v>
       </c>
       <c r="T15">
-        <v>0.01987340031817685</v>
+        <v>0.1272261031068164</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>50.8496599457819</v>
+        <v>393.0249046666666</v>
       </c>
       <c r="H16">
-        <v>50.8496599457819</v>
+        <v>1179.074714</v>
       </c>
       <c r="I16">
-        <v>0.06486839987263954</v>
+        <v>0.4268449236808168</v>
       </c>
       <c r="J16">
-        <v>0.06486839987263954</v>
+        <v>0.4268449236808168</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>6184.05974895456</v>
+        <v>52195.59857557458</v>
       </c>
       <c r="R16">
-        <v>6184.05974895456</v>
+        <v>469760.3871801713</v>
       </c>
       <c r="S16">
-        <v>0.01696834820668958</v>
+        <v>0.1181261463380226</v>
       </c>
       <c r="T16">
-        <v>0.01696834820668958</v>
+        <v>0.1181261463380226</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>50.8496599457819</v>
+        <v>393.0249046666666</v>
       </c>
       <c r="H17">
-        <v>50.8496599457819</v>
+        <v>1179.074714</v>
       </c>
       <c r="I17">
-        <v>0.06486839987263954</v>
+        <v>0.4268449236808168</v>
       </c>
       <c r="J17">
-        <v>0.06486839987263954</v>
+        <v>0.4268449236808168</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>6351.838887964735</v>
+        <v>49406.05400751511</v>
       </c>
       <c r="R17">
-        <v>6351.838887964735</v>
+        <v>444654.4860676361</v>
       </c>
       <c r="S17">
-        <v>0.0174287148538625</v>
+        <v>0.1118130057887114</v>
       </c>
       <c r="T17">
-        <v>0.0174287148538625</v>
+        <v>0.1118130057887114</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>50.8496599457819</v>
+        <v>393.0249046666666</v>
       </c>
       <c r="H18">
-        <v>50.8496599457819</v>
+        <v>1179.074714</v>
       </c>
       <c r="I18">
-        <v>0.06486839987263954</v>
+        <v>0.4268449236808168</v>
       </c>
       <c r="J18">
-        <v>0.06486839987263954</v>
+        <v>0.4268449236808168</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>2678.103698242081</v>
+        <v>21060.82184846374</v>
       </c>
       <c r="R18">
-        <v>2678.103698242081</v>
+        <v>189547.3966361737</v>
       </c>
       <c r="S18">
-        <v>0.007348408315924998</v>
+        <v>0.04766366880664258</v>
       </c>
       <c r="T18">
-        <v>0.007348408315924998</v>
+        <v>0.04766366880664259</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>393.0249046666666</v>
+      </c>
+      <c r="H19">
+        <v>1179.074714</v>
+      </c>
+      <c r="I19">
+        <v>0.4268449236808168</v>
+      </c>
+      <c r="J19">
+        <v>0.4268449236808168</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N19">
+        <v>69.008144</v>
+      </c>
+      <c r="O19">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P19">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q19">
+        <v>9040.6397389412</v>
+      </c>
+      <c r="R19">
+        <v>81365.75765047081</v>
+      </c>
+      <c r="S19">
+        <v>0.02046026795238749</v>
+      </c>
+      <c r="T19">
+        <v>0.02046026795238749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>475.472046</v>
+      </c>
+      <c r="H20">
+        <v>1426.416138</v>
+      </c>
+      <c r="I20">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="J20">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.749051</v>
+      </c>
+      <c r="N20">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O20">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P20">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q20">
+        <v>831.6248575283462</v>
+      </c>
+      <c r="R20">
+        <v>7484.623717755116</v>
+      </c>
+      <c r="S20">
+        <v>0.001882086656722457</v>
+      </c>
+      <c r="T20">
+        <v>0.001882086656722457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>475.472046</v>
+      </c>
+      <c r="H21">
+        <v>1426.416138</v>
+      </c>
+      <c r="I21">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="J21">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N21">
+        <v>429.10666</v>
+      </c>
+      <c r="O21">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P21">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q21">
+        <v>68009.40719414213</v>
+      </c>
+      <c r="R21">
+        <v>612084.6647472791</v>
+      </c>
+      <c r="S21">
+        <v>0.1539150695809213</v>
+      </c>
+      <c r="T21">
+        <v>0.1539150695809213</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>475.472046</v>
+      </c>
+      <c r="H22">
+        <v>1426.416138</v>
+      </c>
+      <c r="I22">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="J22">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>132.804812</v>
+      </c>
+      <c r="N22">
+        <v>398.414436</v>
+      </c>
+      <c r="O22">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P22">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q22">
+        <v>63144.97568028536</v>
+      </c>
+      <c r="R22">
+        <v>568304.7811225682</v>
+      </c>
+      <c r="S22">
+        <v>0.1429061614634075</v>
+      </c>
+      <c r="T22">
+        <v>0.1429061614634076</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>475.472046</v>
+      </c>
+      <c r="H23">
+        <v>1426.416138</v>
+      </c>
+      <c r="I23">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="J23">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>125.707184</v>
+      </c>
+      <c r="N23">
+        <v>377.121552</v>
+      </c>
+      <c r="O23">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P23">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q23">
+        <v>59770.25197337846</v>
+      </c>
+      <c r="R23">
+        <v>537932.2677604062</v>
+      </c>
+      <c r="S23">
+        <v>0.1352686763625273</v>
+      </c>
+      <c r="T23">
+        <v>0.1352686763625273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>50.8496599457819</v>
-      </c>
-      <c r="H19">
-        <v>50.8496599457819</v>
-      </c>
-      <c r="I19">
-        <v>0.06486839987263954</v>
-      </c>
-      <c r="J19">
-        <v>0.06486839987263954</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="N19">
-        <v>21.6846590655712</v>
-      </c>
-      <c r="O19">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="P19">
-        <v>0.0466415910642773</v>
-      </c>
-      <c r="Q19">
-        <v>1102.657539524512</v>
-      </c>
-      <c r="R19">
-        <v>1102.657539524512</v>
-      </c>
-      <c r="S19">
-        <v>0.003025565379853671</v>
-      </c>
-      <c r="T19">
-        <v>0.003025565379853671</v>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>475.472046</v>
+      </c>
+      <c r="H24">
+        <v>1426.416138</v>
+      </c>
+      <c r="I24">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="J24">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N24">
+        <v>160.759445</v>
+      </c>
+      <c r="O24">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P24">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q24">
+        <v>25478.87407599149</v>
+      </c>
+      <c r="R24">
+        <v>229309.8666839234</v>
+      </c>
+      <c r="S24">
+        <v>0.05766235640100597</v>
+      </c>
+      <c r="T24">
+        <v>0.05766235640100598</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>475.472046</v>
+      </c>
+      <c r="H25">
+        <v>1426.416138</v>
+      </c>
+      <c r="I25">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="J25">
+        <v>0.51638668892843</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N25">
+        <v>69.008144</v>
+      </c>
+      <c r="O25">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P25">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q25">
+        <v>10937.14780611421</v>
+      </c>
+      <c r="R25">
+        <v>98434.33025502787</v>
+      </c>
+      <c r="S25">
+        <v>0.02475233846384542</v>
+      </c>
+      <c r="T25">
+        <v>0.02475233846384542</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>51.86711500000001</v>
+      </c>
+      <c r="H26">
+        <v>155.601345</v>
+      </c>
+      <c r="I26">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="J26">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.749051</v>
+      </c>
+      <c r="N26">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P26">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q26">
+        <v>90.71822935786503</v>
+      </c>
+      <c r="R26">
+        <v>816.4640642207852</v>
+      </c>
+      <c r="S26">
+        <v>0.0002053084001161011</v>
+      </c>
+      <c r="T26">
+        <v>0.0002053084001161011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>51.86711500000001</v>
+      </c>
+      <c r="H27">
+        <v>155.601345</v>
+      </c>
+      <c r="I27">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="J27">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N27">
+        <v>429.10666</v>
+      </c>
+      <c r="O27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P27">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q27">
+        <v>7418.841493828635</v>
+      </c>
+      <c r="R27">
+        <v>66769.57344445771</v>
+      </c>
+      <c r="S27">
+        <v>0.016789905276969</v>
+      </c>
+      <c r="T27">
+        <v>0.016789905276969</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>51.86711500000001</v>
+      </c>
+      <c r="H28">
+        <v>155.601345</v>
+      </c>
+      <c r="I28">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="J28">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>132.804812</v>
+      </c>
+      <c r="N28">
+        <v>398.414436</v>
+      </c>
+      <c r="O28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P28">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q28">
+        <v>6888.202456557381</v>
+      </c>
+      <c r="R28">
+        <v>61993.82210901643</v>
+      </c>
+      <c r="S28">
+        <v>0.01558899281921429</v>
+      </c>
+      <c r="T28">
+        <v>0.01558899281921429</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>51.86711500000001</v>
+      </c>
+      <c r="H29">
+        <v>155.601345</v>
+      </c>
+      <c r="I29">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="J29">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>125.707184</v>
+      </c>
+      <c r="N29">
+        <v>377.121552</v>
+      </c>
+      <c r="O29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P29">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q29">
+        <v>6520.068968854161</v>
+      </c>
+      <c r="R29">
+        <v>58680.62071968745</v>
+      </c>
+      <c r="S29">
+        <v>0.01475585379165064</v>
+      </c>
+      <c r="T29">
+        <v>0.01475585379165064</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>51.86711500000001</v>
+      </c>
+      <c r="H30">
+        <v>155.601345</v>
+      </c>
+      <c r="I30">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="J30">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N30">
+        <v>160.759445</v>
+      </c>
+      <c r="O30">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P30">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q30">
+        <v>2779.376207050392</v>
+      </c>
+      <c r="R30">
+        <v>25014.38586345353</v>
+      </c>
+      <c r="S30">
+        <v>0.00629012808593581</v>
+      </c>
+      <c r="T30">
+        <v>0.00629012808593581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>51.86711500000001</v>
+      </c>
+      <c r="H31">
+        <v>155.601345</v>
+      </c>
+      <c r="I31">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="J31">
+        <v>0.05633031006647257</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N31">
+        <v>69.008144</v>
+      </c>
+      <c r="O31">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P31">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q31">
+        <v>1193.084446928187</v>
+      </c>
+      <c r="R31">
+        <v>10737.76002235368</v>
+      </c>
+      <c r="S31">
+        <v>0.002700121692586726</v>
+      </c>
+      <c r="T31">
+        <v>0.002700121692586726</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G32">
+        <v>0.1159013333333333</v>
+      </c>
+      <c r="H32">
+        <v>0.347704</v>
+      </c>
+      <c r="I32">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="J32">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.749051</v>
+      </c>
+      <c r="N32">
+        <v>5.247153000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.003644723415756578</v>
+      </c>
+      <c r="P32">
+        <v>0.003644723415756579</v>
+      </c>
+      <c r="Q32">
+        <v>0.2027173429680001</v>
+      </c>
+      <c r="R32">
+        <v>1.824456086712</v>
+      </c>
+      <c r="S32">
+        <v>4.587785019079931E-07</v>
+      </c>
+      <c r="T32">
+        <v>4.587785019079932E-07</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G33">
+        <v>0.1159013333333333</v>
+      </c>
+      <c r="H33">
+        <v>0.347704</v>
+      </c>
+      <c r="I33">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="J33">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>143.0355533333334</v>
+      </c>
+      <c r="N33">
+        <v>429.10666</v>
+      </c>
+      <c r="O33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="P33">
+        <v>0.2980616520156925</v>
+      </c>
+      <c r="Q33">
+        <v>16.57801134540445</v>
+      </c>
+      <c r="R33">
+        <v>149.20210210864</v>
+      </c>
+      <c r="S33">
+        <v>3.751842392122787E-05</v>
+      </c>
+      <c r="T33">
+        <v>3.751842392122787E-05</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G34">
+        <v>0.1159013333333333</v>
+      </c>
+      <c r="H34">
+        <v>0.347704</v>
+      </c>
+      <c r="I34">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="J34">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>132.804812</v>
+      </c>
+      <c r="N34">
+        <v>398.414436</v>
+      </c>
+      <c r="O34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="P34">
+        <v>0.2767425352500014</v>
+      </c>
+      <c r="Q34">
+        <v>15.39225478388267</v>
+      </c>
+      <c r="R34">
+        <v>138.530293054944</v>
+      </c>
+      <c r="S34">
+        <v>3.483488628721099E-05</v>
+      </c>
+      <c r="T34">
+        <v>3.483488628721099E-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G35">
+        <v>0.1159013333333333</v>
+      </c>
+      <c r="H35">
+        <v>0.347704</v>
+      </c>
+      <c r="I35">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="J35">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>125.707184</v>
+      </c>
+      <c r="N35">
+        <v>377.121552</v>
+      </c>
+      <c r="O35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="P35">
+        <v>0.261952291301752</v>
+      </c>
+      <c r="Q35">
+        <v>14.56963023517867</v>
+      </c>
+      <c r="R35">
+        <v>131.126672116608</v>
+      </c>
+      <c r="S35">
+        <v>3.29731686237808E-05</v>
+      </c>
+      <c r="T35">
+        <v>3.29731686237808E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G36">
+        <v>0.1159013333333333</v>
+      </c>
+      <c r="H36">
+        <v>0.347704</v>
+      </c>
+      <c r="I36">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="J36">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>53.58648166666666</v>
+      </c>
+      <c r="N36">
+        <v>160.759445</v>
+      </c>
+      <c r="O36">
+        <v>0.111665071229204</v>
+      </c>
+      <c r="P36">
+        <v>0.1116650712292041</v>
+      </c>
+      <c r="Q36">
+        <v>6.210744673808889</v>
+      </c>
+      <c r="R36">
+        <v>55.89670206428</v>
+      </c>
+      <c r="S36">
+        <v>1.405580842499931E-05</v>
+      </c>
+      <c r="T36">
+        <v>1.405580842499931E-05</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G37">
+        <v>0.1159013333333333</v>
+      </c>
+      <c r="H37">
+        <v>0.347704</v>
+      </c>
+      <c r="I37">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="J37">
+        <v>0.0001258747097035233</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>23.00271466666667</v>
+      </c>
+      <c r="N37">
+        <v>69.008144</v>
+      </c>
+      <c r="O37">
+        <v>0.04793372678759353</v>
+      </c>
+      <c r="P37">
+        <v>0.04793372678759355</v>
+      </c>
+      <c r="Q37">
+        <v>2.666045300152889</v>
+      </c>
+      <c r="R37">
+        <v>23.994407701376</v>
+      </c>
+      <c r="S37">
+        <v>6.033643944396335E-06</v>
+      </c>
+      <c r="T37">
+        <v>6.033643944396336E-06</v>
       </c>
     </row>
   </sheetData>
